--- a/results/consolidated/NF_GARCH_Results_manual.xlsx
+++ b/results/consolidated/NF_GARCH_Results_manual.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -47,34 +47,43 @@
     <t xml:space="preserve">SplitType</t>
   </si>
   <si>
+    <t xml:space="preserve">sGARCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EURUSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBPUSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sstd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gjrGARCH</t>
+  </si>
+  <si>
     <t xml:space="preserve">eGARCH</t>
   </si>
   <si>
-    <t xml:space="preserve">sstd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EURUSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrono</t>
-  </si>
-  <si>
     <t xml:space="preserve">TGARCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBPUSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDZAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMZN</t>
   </si>
   <si>
     <t xml:space="preserve">WindowStart</t>
@@ -587,19 +596,19 @@
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>49151.6959605564</v>
+        <v>-30865.1151412699</v>
       </c>
       <c r="E2" t="n">
-        <v>49190.1869233515</v>
+        <v>-30839.4544994065</v>
       </c>
       <c r="F2" t="n">
-        <v>-24569.8479802782</v>
+        <v>15436.5575706349</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000107970208374375</v>
+        <v>0.0000471221203664775</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00909816454881126</v>
+        <v>0.00506340397644398</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -607,28 +616,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>-32326.2491294199</v>
+        <v>-31065.310641081</v>
       </c>
       <c r="E3" t="n">
-        <v>-32287.7581666248</v>
+        <v>-31039.6499992176</v>
       </c>
       <c r="F3" t="n">
-        <v>16169.12456471</v>
+        <v>15536.6553205405</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0000344071775415811</v>
+        <v>0.0000541902060297839</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00423365430412743</v>
+        <v>0.00534488120657274</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -636,7 +645,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -645,19 +654,19 @@
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>-31954.3769009613</v>
+        <v>-25662.9237836476</v>
       </c>
       <c r="E4" t="n">
-        <v>-31915.8859381662</v>
+        <v>-25637.2631417842</v>
       </c>
       <c r="F4" t="n">
-        <v>15983.1884504807</v>
+        <v>12835.4618918238</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000409184967887153</v>
+        <v>0.000151102849544144</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00452602623137869</v>
+        <v>0.0093812057061357</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -665,7 +674,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -674,19 +683,19 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>-26765.1554633125</v>
+        <v>-16292.5961162957</v>
       </c>
       <c r="E5" t="n">
-        <v>-26726.6645005174</v>
+        <v>-16266.9354744323</v>
       </c>
       <c r="F5" t="n">
-        <v>13388.5777316562</v>
+        <v>8150.29805814787</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000117643090661667</v>
+        <v>0.00134506210144947</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00815540288852893</v>
+        <v>0.0267916397053963</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -694,7 +703,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -703,19 +712,19 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>-17940.7188127727</v>
+        <v>-21806.61635107</v>
       </c>
       <c r="E6" t="n">
-        <v>-17902.2278499776</v>
+        <v>-21780.9557092066</v>
       </c>
       <c r="F6" t="n">
-        <v>8976.35940638635</v>
+        <v>10907.308175535</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00100157037362807</v>
+        <v>0.000413129750487411</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0220548986630599</v>
+        <v>0.014402843653106</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -723,7 +732,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -732,19 +741,19 @@
         <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>-23433.1284200857</v>
+        <v>-17563.0888840556</v>
       </c>
       <c r="E7" t="n">
-        <v>-23394.6374572906</v>
+        <v>-17537.4282421922</v>
       </c>
       <c r="F7" t="n">
-        <v>11722.5642100428</v>
+        <v>8785.54444202782</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000316598300654262</v>
+        <v>0.000852662289321726</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0121024524141415</v>
+        <v>0.0211827623315875</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -752,30 +761,552 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-33362.8305909618</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-33330.7547886325</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16686.4152954809</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0000468960991281148</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.00503851779434072</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
+        <v>-33107.3400236491</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-33075.2642213199</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16558.6700118246</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0000541989383920334</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0053442522767311</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-27582.4054634246</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-27550.3296610953</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13796.2027317123</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00015096287634305</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00934033768264938</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-18896.2142759014</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-18864.1384735722</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9453.10713795071</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00130997725605224</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0263696420670088</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-24492.0770277156</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-24460.0012253864</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12251.0385138578</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.000412427477910599</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0143943179341497</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-21575.9136622605</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-21543.8378599312</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10792.9568311302</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.000773198625882046</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0196400882473723</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-34582.5142602016</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-34544.0232974065</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17297.2571301008</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0000400626614373225</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.00470925312283025</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-34124.7483549712</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-34086.2573921761</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17068.3741774856</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0000515527973425671</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.00525776264751765</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-28687.4162221169</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-28648.9252593218</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14349.7081110585</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.000188423406765555</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0105524299703285</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-19808.0176404271</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-19769.526677632</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9910.00882021353</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.00111959510690415</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0241058175385153</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-25241.6100567978</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-25203.1190940027</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12626.8050283989</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.000372757634185981</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0138921120121489</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-22400.0835745185</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-22361.5926117234</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11206.0417872593</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.000695097935646265</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0184203552407474</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="n">
+        <v>31837.7685390903</v>
+      </c>
+      <c r="E20" t="n">
+        <v>31876.2595018854</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-15912.8842695452</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.718525068301419</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0920867446967219</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-32326.2491294199</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-32287.7581666248</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16169.12456471</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0000344245658589725</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.00423507712086083</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-31954.3769009613</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-31915.8859381662</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15983.1884504807</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0000409777544596631</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0045298303922697</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-26765.1554633125</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-26726.6645005174</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13388.5777316562</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.00011769745293201</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.00815489849998383</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-17940.7188127727</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-17902.2278499776</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8976.35940638635</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.00100380132812952</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.022140732321569</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-23433.1284200857</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-23394.6374572906</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11722.5642100428</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.000319284269996263</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0121920750030135</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="n">
         <v>-20521.2259010673</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E26" t="n">
         <v>-20482.7349382722</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F26" t="n">
         <v>10266.6129505337</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.000598885254141106</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.016399655143897</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G26" t="n">
+        <v>0.00059953077463494</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0164235828002378</v>
+      </c>
+      <c r="I26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -795,16 +1326,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -834,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -857,42 +1388,42 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>7723.47407203142</v>
+        <v>-3573.8879232139</v>
       </c>
       <c r="H2" t="n">
-        <v>7748.76172062196</v>
+        <v>-3557.02949082021</v>
       </c>
       <c r="I2" t="n">
-        <v>-3855.73703601571</v>
+        <v>1790.94396160695</v>
       </c>
       <c r="J2" t="n">
-        <v>111755820550134058346006848200602</v>
+        <v>0.0000167109683159141</v>
       </c>
       <c r="K2" t="n">
-        <v>2363850976166883</v>
+        <v>0.00323604210240459</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
       <c r="B3" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C3" t="n">
-        <v>501</v>
+        <v>2001</v>
       </c>
       <c r="D3" t="n">
-        <v>520</v>
+        <v>2020</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -901,28 +1432,28 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-2182.14008402503</v>
+        <v>-3293.95886505145</v>
       </c>
       <c r="H3" t="n">
-        <v>-2156.85243543449</v>
+        <v>-3277.10043265777</v>
       </c>
       <c r="I3" t="n">
-        <v>1097.07004201251</v>
+        <v>1650.97943252573</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00142468596898046</v>
+        <v>0.0000176939209284565</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0288217957333466</v>
+        <v>0.00333105337048631</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -945,28 +1476,28 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>5359.21623558404</v>
+        <v>-3437.99173076115</v>
       </c>
       <c r="H4" t="n">
-        <v>5384.50388417457</v>
+        <v>-3421.13329836746</v>
       </c>
       <c r="I4" t="n">
-        <v>-2673.60811779202</v>
+        <v>1722.99586538057</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0473627725522309</v>
+        <v>0.0000620418524294945</v>
       </c>
       <c r="K4" t="n">
-        <v>0.211660085785872</v>
+        <v>0.00658076831546724</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -989,820 +1520,3196 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>3957.82105596306</v>
+        <v>-3474.23411251776</v>
       </c>
       <c r="H5" t="n">
-        <v>3983.1087045536</v>
+        <v>-3457.37568012407</v>
       </c>
       <c r="I5" t="n">
-        <v>-1972.91052798153</v>
+        <v>1741.11705625888</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000895906083618502</v>
+        <v>0.0000262398816713506</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0175964248018697</v>
+        <v>0.00411770853763819</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
       <c r="B6" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C6" t="n">
-        <v>501</v>
+        <v>2001</v>
       </c>
       <c r="D6" t="n">
-        <v>520</v>
+        <v>2020</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>-3705.53862395545</v>
+        <v>-3437.33856752947</v>
       </c>
       <c r="H6" t="n">
-        <v>-3680.25097536491</v>
+        <v>-3420.48013513578</v>
       </c>
       <c r="I6" t="n">
-        <v>1858.76931197772</v>
+        <v>1722.66928376473</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0000216244146697694</v>
+        <v>0.0000302759045022097</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00400967824502888</v>
+        <v>0.00451611131158459</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1501</v>
+        <v>3501</v>
       </c>
       <c r="B7" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C7" t="n">
-        <v>2001</v>
+        <v>4001</v>
       </c>
       <c r="D7" t="n">
-        <v>2020</v>
+        <v>4020</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>-3521.0043705216</v>
+        <v>-3478.33707165305</v>
       </c>
       <c r="H7" t="n">
-        <v>-3495.71672193107</v>
+        <v>-3461.47863925936</v>
       </c>
       <c r="I7" t="n">
-        <v>1766.5021852608</v>
+        <v>1743.16853582652</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0000146344792024383</v>
+        <v>0.0000589608707272758</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00338247503373013</v>
+        <v>0.00629922404919573</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3501</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="C8" t="n">
-        <v>4001</v>
+        <v>501</v>
       </c>
       <c r="D8" t="n">
-        <v>4020</v>
+        <v>520</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>-3754.52156277661</v>
+        <v>-2838.98679279591</v>
       </c>
       <c r="H8" t="n">
-        <v>-3729.23391418607</v>
+        <v>-2822.12836040222</v>
       </c>
       <c r="I8" t="n">
-        <v>1883.2607813883</v>
+        <v>1423.49339639796</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000047561045622681</v>
+        <v>0.0000804342508214846</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00585225387354001</v>
+        <v>0.00748577065069542</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
       <c r="B9" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C9" t="n">
-        <v>501</v>
+        <v>2001</v>
       </c>
       <c r="D9" t="n">
-        <v>520</v>
+        <v>2020</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>-3676.0201244237</v>
+        <v>-2912.49209132709</v>
       </c>
       <c r="H9" t="n">
-        <v>-3650.73247583317</v>
+        <v>-2895.6336589334</v>
       </c>
       <c r="I9" t="n">
-        <v>1844.01006221185</v>
+        <v>1460.24604566354</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0000213362266854825</v>
+        <v>0.00014187356380203</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00389286458449413</v>
+        <v>0.00924930447709106</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1501</v>
+        <v>3501</v>
       </c>
       <c r="B10" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C10" t="n">
-        <v>2001</v>
+        <v>4001</v>
       </c>
       <c r="D10" t="n">
-        <v>2020</v>
+        <v>4020</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-3728.42415812967</v>
+        <v>-2916.56347576245</v>
       </c>
       <c r="H10" t="n">
-        <v>-3703.13650953913</v>
+        <v>-2899.70504336876</v>
       </c>
       <c r="I10" t="n">
-        <v>1870.21207906483</v>
+        <v>1462.28173788122</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0000189591799465804</v>
+        <v>0.0000968718819260811</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00359323732927179</v>
+        <v>0.00778723435963803</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3501</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="C11" t="n">
-        <v>4001</v>
+        <v>501</v>
       </c>
       <c r="D11" t="n">
-        <v>4020</v>
+        <v>520</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>-3580.13249755125</v>
+        <v>-1777.33629455292</v>
       </c>
       <c r="H11" t="n">
-        <v>-3554.84484896072</v>
+        <v>-1760.47786215923</v>
       </c>
       <c r="I11" t="n">
-        <v>1796.06624877562</v>
+        <v>892.668147276459</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0000398022120662904</v>
+        <v>0.000874792179809386</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00528681466056947</v>
+        <v>0.0214215451659448</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
       <c r="B12" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C12" t="n">
-        <v>501</v>
+        <v>2001</v>
       </c>
       <c r="D12" t="n">
-        <v>520</v>
+        <v>2020</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-2969.97381863828</v>
+        <v>-2298.38668318686</v>
       </c>
       <c r="H12" t="n">
-        <v>-2944.68617004775</v>
+        <v>-2281.52825079318</v>
       </c>
       <c r="I12" t="n">
-        <v>1490.98690931914</v>
+        <v>1153.19334159343</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0000747213723099521</v>
+        <v>0.000353948781867446</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00654879050221167</v>
+        <v>0.0144012023419427</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1501</v>
+        <v>3501</v>
       </c>
       <c r="B13" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C13" t="n">
-        <v>2001</v>
+        <v>4001</v>
       </c>
       <c r="D13" t="n">
-        <v>2020</v>
+        <v>4020</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-3023.67684209273</v>
+        <v>-1798.09493232825</v>
       </c>
       <c r="H13" t="n">
-        <v>-2998.3891935022</v>
+        <v>-1781.23649993456</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.83842104637</v>
+        <v>903.047466164125</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000148781423791463</v>
+        <v>0.00145624845419443</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00875828435467968</v>
+        <v>0.0309143509344589</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3501</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="C14" t="n">
-        <v>4001</v>
+        <v>501</v>
       </c>
       <c r="D14" t="n">
-        <v>4020</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-2991.2713741899</v>
+        <v>-1689.56579151609</v>
       </c>
       <c r="H14" t="n">
-        <v>-2965.98372559937</v>
+        <v>-1672.7073591224</v>
       </c>
       <c r="I14" t="n">
-        <v>1501.63568709495</v>
+        <v>848.782895758045</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000080647354668567</v>
+        <v>0.00143178046398751</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00768941602029975</v>
+        <v>0.0351867135482878</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
       <c r="B15" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C15" t="n">
-        <v>501</v>
+        <v>2001</v>
       </c>
       <c r="D15" t="n">
-        <v>520</v>
+        <v>2020</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-1936.22375198158</v>
+        <v>-2516.88310373391</v>
       </c>
       <c r="H15" t="n">
-        <v>-1910.93610339105</v>
+        <v>-2500.02467134022</v>
       </c>
       <c r="I15" t="n">
-        <v>974.111875990789</v>
+        <v>1262.44155186695</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00102065815316389</v>
+        <v>0.000442946293641639</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0236619616292947</v>
+        <v>0.0163742716547675</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M15" t="s">
         <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1501</v>
+        <v>3501</v>
       </c>
       <c r="B16" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C16" t="n">
-        <v>2001</v>
+        <v>4001</v>
       </c>
       <c r="D16" t="n">
-        <v>2020</v>
+        <v>4020</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>-2417.15962681482</v>
+        <v>-2388.59210751909</v>
       </c>
       <c r="H16" t="n">
-        <v>-2391.87197822429</v>
+        <v>-2371.73367512541</v>
       </c>
       <c r="I16" t="n">
-        <v>1214.57981340741</v>
+        <v>1198.29605375955</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000292117896148138</v>
+        <v>0.000461518740129558</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0129196637046578</v>
+        <v>0.0169030122106642</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
         <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3501</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="C17" t="n">
-        <v>4001</v>
+        <v>501</v>
       </c>
       <c r="D17" t="n">
-        <v>4020</v>
+        <v>520</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-1857.27668339855</v>
+        <v>-1650.31704015649</v>
       </c>
       <c r="H17" t="n">
-        <v>-1831.98903480802</v>
+        <v>-1633.4586077628</v>
       </c>
       <c r="I17" t="n">
-        <v>934.638341699277</v>
+        <v>829.158520078244</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00102859255868885</v>
+        <v>0.000791648945744198</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0271956440516975</v>
+        <v>0.0225134110131217</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
       <c r="B18" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C18" t="n">
-        <v>501</v>
+        <v>2001</v>
       </c>
       <c r="D18" t="n">
-        <v>520</v>
+        <v>2020</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-2865.13119380738</v>
+        <v>-2066.53563989133</v>
       </c>
       <c r="H18" t="n">
-        <v>-2839.84354521684</v>
+        <v>-2049.67720749764</v>
       </c>
       <c r="I18" t="n">
-        <v>1438.56559690369</v>
+        <v>1037.26781994567</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000175365944732782</v>
+        <v>0.00106966720704273</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0101951076151379</v>
+        <v>0.0221373506524419</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1501</v>
+        <v>3501</v>
       </c>
       <c r="B19" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C19" t="n">
-        <v>2001</v>
+        <v>4001</v>
       </c>
       <c r="D19" t="n">
-        <v>2020</v>
+        <v>4020</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-2668.40414022124</v>
+        <v>-2043.87594152046</v>
       </c>
       <c r="H19" t="n">
-        <v>-2643.1164916307</v>
+        <v>-2027.01750912677</v>
       </c>
       <c r="I19" t="n">
-        <v>1340.20207011062</v>
+        <v>1025.93797076023</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000365614639027931</v>
+        <v>0.000633695794138548</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0150632237680679</v>
+        <v>0.0212763332127231</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3501</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>4001</v>
+        <v>501</v>
       </c>
       <c r="D20" t="n">
-        <v>4020</v>
+        <v>520</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>-2462.46817472629</v>
+        <v>-3800.56503627232</v>
       </c>
       <c r="H20" t="n">
-        <v>-2437.18052613575</v>
+        <v>-3779.49199578021</v>
       </c>
       <c r="I20" t="n">
-        <v>1237.23408736314</v>
+        <v>1905.28251813616</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000316327085559176</v>
+        <v>0.0000168525202167928</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0140453513626074</v>
+        <v>0.00324005764559907</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
       <c r="B21" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C21" t="n">
-        <v>501</v>
+        <v>2001</v>
       </c>
       <c r="D21" t="n">
-        <v>520</v>
+        <v>2020</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>-2178.45452577297</v>
+        <v>-3629.66714871381</v>
       </c>
       <c r="H21" t="n">
-        <v>-2153.16687718244</v>
+        <v>-3608.5941082217</v>
       </c>
       <c r="I21" t="n">
-        <v>1095.22726288649</v>
+        <v>1819.83357435691</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000869006475354268</v>
+        <v>0.0000181853907199457</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0198874947234573</v>
+        <v>0.0035722282461791</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1501</v>
+        <v>3501</v>
       </c>
       <c r="B22" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C22" t="n">
-        <v>2001</v>
+        <v>4001</v>
       </c>
       <c r="D22" t="n">
-        <v>2020</v>
+        <v>4020</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>-2385.17146520627</v>
+        <v>-3868.05576328642</v>
       </c>
       <c r="H22" t="n">
-        <v>-2359.88381661574</v>
+        <v>-3846.98272279431</v>
       </c>
       <c r="I22" t="n">
-        <v>1198.58573260313</v>
+        <v>1939.02788164321</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00110886953073024</v>
+        <v>0.0000465776886928858</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0218147172987906</v>
+        <v>0.00563412149395579</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>500</v>
+      </c>
+      <c r="C23" t="n">
+        <v>501</v>
+      </c>
+      <c r="D23" t="n">
+        <v>520</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-3774.93421293965</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-3753.86117244754</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1892.46710646983</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0000263926265855201</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.00414885797567494</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-3802.16402359277</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-3781.09098310066</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1906.08201179639</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0000228872698675581</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.00412112119497133</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>3501</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B25" t="n">
         <v>4000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C25" t="n">
         <v>4001</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D25" t="n">
         <v>4020</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-3677.74508141357</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-3656.67204092146</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1843.87254070678</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.000058935755439247</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0062989806171093</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s">
         <v>13</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="N25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>500</v>
+      </c>
+      <c r="C26" t="n">
+        <v>501</v>
+      </c>
+      <c r="D26" t="n">
+        <v>520</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3066.34055339843</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-3045.26751290631</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1538.17027669921</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0000775451400576484</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0072959239598892</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-3118.40074993424</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-3097.32770944213</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1564.20037496712</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.000143731731326851</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0091548542391462</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-3066.65248622904</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-3045.57944573693</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1538.32624311452</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.000101638178604186</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.00800763874641177</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>500</v>
+      </c>
+      <c r="C29" t="n">
+        <v>501</v>
+      </c>
+      <c r="D29" t="n">
+        <v>520</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2033.55141230282</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2012.47837181071</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1021.77570615141</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.000853874460451449</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.020998721161339</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2519.06069263767</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2497.98765214555</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1264.53034631883</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.000353360089086917</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.014368776746323</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1941.68876051266</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1920.61572002055</v>
+      </c>
+      <c r="I31" t="n">
+        <v>975.844380256329</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.00144984028768991</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0309005998069728</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>500</v>
+      </c>
+      <c r="C32" t="n">
+        <v>501</v>
+      </c>
+      <c r="D32" t="n">
+        <v>520</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-2984.00021310398</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-2962.92717261187</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1497.00010655199</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.000217623665522254</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0119752022045961</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-2765.73432190412</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-2744.66128141201</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1387.86716095206</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.000422425471196466</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0159282456170785</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-2553.75089414444</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-2532.67785365233</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1281.87544707222</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.000452945589110676</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0168599009490246</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>500</v>
+      </c>
+      <c r="C35" t="n">
+        <v>501</v>
+      </c>
+      <c r="D35" t="n">
+        <v>520</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-2314.84816014302</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-2293.77511965091</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1162.42408007151</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.000715815655911645</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0180195699393733</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-2490.35166732929</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-2469.27862683718</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1250.17583366464</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.00110804907554669</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0213712770526996</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-2336.0837337539</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-2315.01069326178</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1173.04186687695</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.000657204007795499</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0216334766000174</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="n">
+        <v>500</v>
+      </c>
+      <c r="C38" t="n">
+        <v>501</v>
+      </c>
+      <c r="D38" t="n">
+        <v>520</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-3941.40822024732</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-3916.12057165678</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1976.70411012366</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0000508052483589954</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.00564546278400887</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-3818.38252351805</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-3793.09487492751</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1915.19126175902</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0000359539349078942</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.00440102789122086</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-4027.97280060409</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-4002.68515201356</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2019.98640030205</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0000620630034461469</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.00716794972681526</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>500</v>
+      </c>
+      <c r="C41" t="n">
+        <v>501</v>
+      </c>
+      <c r="D41" t="n">
+        <v>520</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-3941.18124160045</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-3915.89359300992</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1976.59062080023</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.00005126114502596</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.00573826294318464</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-3998.66694115334</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-3973.37929256281</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2005.33347057667</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0000307639851765271</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.00464394475910482</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-3806.94598572913</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-3781.65833713859</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1909.47299286456</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0000556997512924068</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.00639080406931313</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>500</v>
+      </c>
+      <c r="C44" t="n">
+        <v>501</v>
+      </c>
+      <c r="D44" t="n">
+        <v>520</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-3196.26299681783</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-3170.9753482273</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1604.13149840892</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.000103554489370186</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.00761732212104187</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-3263.04483921303</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-3237.7571906225</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1637.52241960652</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.000220094078095655</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0116132219008434</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-3196.89793224233</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-3171.6102836518</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1604.44896612117</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.000159277098602454</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0103726230645691</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>500</v>
+      </c>
+      <c r="C47" t="n">
+        <v>501</v>
+      </c>
+      <c r="D47" t="n">
+        <v>520</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-2194.9768009659</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-2169.68915237537</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1103.48840048295</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0010563244794359</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0250288675743383</v>
+      </c>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-2644.09621612889</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-2618.80856753836</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1328.04810806444</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.000335918456242305</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0146230330671403</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2034.65295797067</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-2009.36530938014</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1023.32647898534</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.00208720353529895</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0322444027031829</v>
+      </c>
+      <c r="L49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>500</v>
+      </c>
+      <c r="C50" t="n">
+        <v>501</v>
+      </c>
+      <c r="D50" t="n">
+        <v>520</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-3092.11487939442</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-3066.82723080389</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1552.05743969721</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.000246137349105436</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0112375209340916</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-2876.91829527199</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-2851.63064668146</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1444.459147636</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.000429560882824255</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0170364614289268</v>
+      </c>
+      <c r="L51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-2644.97691742871</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-2619.68926883817</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1328.48845871435</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.000710337888637957</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0219472094715232</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="n">
+        <v>500</v>
+      </c>
+      <c r="C53" t="n">
+        <v>501</v>
+      </c>
+      <c r="D53" t="n">
+        <v>520</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-2427.78829100028</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-2402.50064240974</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1219.89414550014</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.00101462053871826</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0229392599081481</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-2615.36302444564</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-2590.07537585511</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1313.68151222282</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.00153456263470244</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0274378810334423</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-2431.37837798163</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-2406.0907293911</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1221.68918899082</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.00175683378137351</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0325703317557726</v>
+      </c>
+      <c r="L55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>500</v>
+      </c>
+      <c r="C56" t="n">
+        <v>501</v>
+      </c>
+      <c r="D56" t="n">
+        <v>520</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="n">
+        <v>7723.47407203142</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7748.76172062196</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-3855.73703601571</v>
+      </c>
+      <c r="J56" t="n">
+        <v>207185870231954258362288464084248</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3218585872179953</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="n">
+        <v>500</v>
+      </c>
+      <c r="C57" t="n">
+        <v>501</v>
+      </c>
+      <c r="D57" t="n">
+        <v>520</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-2182.14008402503</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-2156.85243543449</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1097.07004201251</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.00104139804494214</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0259750495742901</v>
+      </c>
+      <c r="L57" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1988.91363348004</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1963.62598488951</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1000.45681674002</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5210351289941901286008600426022206442620202606644668466620026802062480406660640844880260864686400626686020220262088026008244428262642604060602686262044844640848648046462044688226842026806428264080</v>
+      </c>
+      <c r="K58" t="n">
+        <v>22580330089781615240088442200406020462440208082240202626826246820406624844262288228688882864462668</v>
+      </c>
+      <c r="L58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>500</v>
+      </c>
+      <c r="C59" t="n">
+        <v>501</v>
+      </c>
+      <c r="D59" t="n">
+        <v>520</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8175.66039831932</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8200.94804690985</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-4081.83019915966</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0445734208773483</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.210543336104814</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>500</v>
+      </c>
+      <c r="C60" t="n">
+        <v>501</v>
+      </c>
+      <c r="D60" t="n">
+        <v>520</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-3705.53862395545</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-3680.25097536491</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1858.76931197772</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0000231987057290424</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.00419626775115468</v>
+      </c>
+      <c r="L60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" t="s">
+        <v>11</v>
+      </c>
+      <c r="N60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-3521.0043705216</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-3495.71672193107</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1766.5021852608</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0000218569033019729</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.00385326758740712</v>
+      </c>
+      <c r="L61" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" t="s">
+        <v>11</v>
+      </c>
+      <c r="N61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-3754.52156277661</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-3729.23391418607</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1883.2607813883</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.0000678939591404799</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.00729281528531646</v>
+      </c>
+      <c r="L62" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" t="s">
+        <v>11</v>
+      </c>
+      <c r="N62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>500</v>
+      </c>
+      <c r="C63" t="n">
+        <v>501</v>
+      </c>
+      <c r="D63" t="n">
+        <v>520</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-3676.0201244237</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-3650.73247583317</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1844.01006221185</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0000206305025351592</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.00383642875418488</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-3728.42415812967</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-3703.13650953913</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1870.21207906483</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0000169240021216789</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.00330412168142429</v>
+      </c>
+      <c r="L64" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-3580.13249755125</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-3554.84484896072</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1796.06624877562</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0000303030437976544</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.00475933333933749</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" t="s">
+        <v>13</v>
+      </c>
+      <c r="N65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="n">
+        <v>500</v>
+      </c>
+      <c r="C66" t="n">
+        <v>501</v>
+      </c>
+      <c r="D66" t="n">
+        <v>520</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2969.97381863828</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-2944.68617004775</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1490.98690931914</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0000693445929284761</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.00659077251801649</v>
+      </c>
+      <c r="L66" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-3023.67684209273</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-2998.3891935022</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1517.83842104637</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.000135807274447306</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.00831640495986089</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-2991.2713741899</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-2965.98372559937</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1501.63568709495</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.000081885675839928</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.00761991761968711</v>
+      </c>
+      <c r="L68" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="n">
+        <v>500</v>
+      </c>
+      <c r="C69" t="n">
+        <v>501</v>
+      </c>
+      <c r="D69" t="n">
+        <v>520</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1936.22375198158</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-1910.93610339105</v>
+      </c>
+      <c r="I69" t="n">
+        <v>974.111875990789</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.00116984515139004</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0269421102072115</v>
+      </c>
+      <c r="L69" t="s">
+        <v>27</v>
+      </c>
+      <c r="M69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-2417.15962681482</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-2391.87197822429</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1214.57981340741</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.000248468819624166</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0118592471424138</v>
+      </c>
+      <c r="L70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" t="s">
+        <v>15</v>
+      </c>
+      <c r="N70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1857.27668339855</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-1831.98903480802</v>
+      </c>
+      <c r="I71" t="n">
+        <v>934.638341699277</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.00116326506141874</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0276258387534971</v>
+      </c>
+      <c r="L71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M71" t="s">
+        <v>15</v>
+      </c>
+      <c r="N71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>500</v>
+      </c>
+      <c r="C72" t="n">
+        <v>501</v>
+      </c>
+      <c r="D72" t="n">
+        <v>520</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-2865.13119380738</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-2839.84354521684</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1438.56559690369</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.000266768785483751</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0130072016644426</v>
+      </c>
+      <c r="L72" t="s">
+        <v>27</v>
+      </c>
+      <c r="M72" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-2668.40414022124</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-2643.1164916307</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1340.20207011062</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.000389047542042115</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0154759703035964</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+      <c r="M73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-2462.46817472629</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-2437.18052613575</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1237.23408736314</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.000415611514550348</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0161596691001535</v>
+      </c>
+      <c r="L74" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>500</v>
+      </c>
+      <c r="C75" t="n">
+        <v>501</v>
+      </c>
+      <c r="D75" t="n">
+        <v>520</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-2178.45452577297</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-2153.16687718244</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1095.22726288649</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.000768112712936887</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0164045416707012</v>
+      </c>
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-2385.17146520627</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-2359.88381661574</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1198.58573260313</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.00108387748437913</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.020709756216638</v>
+      </c>
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" t="s">
+        <v>17</v>
+      </c>
+      <c r="N76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" t="n">
         <v>-2222.18389420002</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H77" t="n">
         <v>-2196.89624560949</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I77" t="n">
         <v>1117.09194710001</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.000706368693528075</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.0223271782497627</v>
-      </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" t="s">
-        <v>26</v>
+      <c r="J77" t="n">
+        <v>0.00060810629043592</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0217653058694194</v>
+      </c>
+      <c r="L77" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1827,33 +4734,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
         <v>-25490.1424379366</v>
@@ -1865,45 +4772,132 @@
         <v>12751.0712189683</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000351670448902566</v>
+        <v>0.000352619357668561</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0112453482741889</v>
+        <v>0.0112793660229891</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>49151.6959605564</v>
+        <v>31837.7685390903</v>
       </c>
       <c r="D3" t="n">
-        <v>49190.1869233515</v>
+        <v>31876.2595018854</v>
       </c>
       <c r="E3" t="n">
-        <v>-24569.8479802782</v>
+        <v>-15912.8842695452</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000107970208374375</v>
+        <v>0.718525068301419</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00909816454881126</v>
+        <v>0.0920867446967219</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-27474.0650181722</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-27435.5740553771</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13743.0325090861</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000411248257046974</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0128229550886813</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-23875.94181957</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-23850.2811777066</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11941.970909785</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000477211552866502</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0136944560965404</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-26502.7968406522</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-26470.7210383229</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13256.3984203261</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000457943545618014</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0133545260003753</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1928,33 +4922,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
         <v>-2885.72426824491</v>
@@ -1966,45 +4960,132 @@
         <v>1448.86213412245</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000352832704772032</v>
+        <v>0.000365608223450156</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0120068976115166</v>
+        <v>0.0122066094680257</v>
       </c>
       <c r="H2" t="n">
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>3714.59281988837</v>
+        <v>2932.02018821142</v>
       </c>
       <c r="D3" t="n">
-        <v>3739.88046847891</v>
+        <v>2957.30783680195</v>
       </c>
       <c r="E3" t="n">
-        <v>-1851.29640994419</v>
+        <v>-1460.01009410571</v>
       </c>
       <c r="F3" t="n">
-        <v>27938955137533514584004262800408</v>
+        <v>1302587822485475321502400684088804668480808404466442644480084208048620604440460266220840246424600484424080880848022084002866682848468406040408424848066266460262462064648066422884268084204682846020</v>
       </c>
       <c r="G3" t="n">
-        <v>590962744041721</v>
+        <v>5645082522445403810022668800604080648660802028860808484284864280604486266848822882422228246648442</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3119.61273565076</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3094.32508706023</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1565.80636782538</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000552276237811958</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0149253103964816</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2644.0765647232</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2627.21813232951</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1326.0382823616</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000447074997537763</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.014096189328253</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2985.75527286734</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2964.68223237523</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1497.87763643367</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000374660255767897</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0124183085664645</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2029,92 +5110,92 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>49151.6959605564</v>
+        <v>-25490.1424379366</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>49190.1869233515</v>
+        <v>-25451.6514751415</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>-24569.8479802782</v>
+        <v>12751.0712189683</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="n">
-        <v>0.000107970208374375</v>
+        <v>0.000352619357668561</v>
       </c>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>0.00909816454881126</v>
+        <v>0.0112793660229891</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
@@ -2125,41 +5206,41 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>-25490.1424379366</v>
+        <v>-27474.0650181722</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>-25451.6514751415</v>
+        <v>-27435.5740553771</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>12751.0712189683</v>
+        <v>13743.0325090861</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="n">
-        <v>0.000351670448902566</v>
+        <v>0.000411248257046974</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>0.0112453482741889</v>
+        <v>0.0128229550886813</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -2170,43 +5251,43 @@
         <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="n">
-        <v>-2885.72426824491</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" t="n">
-        <v>-2860.43661965437</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4" t="n">
-        <v>1448.86213412245</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="n">
-        <v>0.000352832704772032</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4" t="n">
-        <v>0.0120068976115166</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="n">
+        <v>-26502.7968406522</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="n">
+        <v>-26470.7210383229</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="n">
+        <v>13256.3984203261</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="n">
+        <v>0.000457943545618014</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" t="n">
+        <v>0.0133545260003753</v>
+      </c>
+      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -2215,10 +5296,10 @@
         <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U4" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2228,30 +5309,30 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5"/>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
-        <v>3714.59281988837</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" t="n">
-        <v>3739.88046847891</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" t="n">
-        <v>-1851.29640994419</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5" t="n">
-        <v>27938955137533514584004262800408</v>
-      </c>
-      <c r="M5"/>
-      <c r="N5" t="n">
-        <v>590962744041721</v>
-      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="n">
+        <v>-23875.94181957</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>-23850.2811777066</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="n">
+        <v>11941.970909785</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="n">
+        <v>0.000477211552866502</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>0.0136944560965404</v>
+      </c>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -2260,10 +5341,280 @@
         <v>4</v>
       </c>
       <c r="T5" t="n">
+        <v>9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="n">
+        <v>31837.7685390903</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="n">
+        <v>31876.2595018854</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="n">
+        <v>-15912.8842695452</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" t="n">
+        <v>0.718525068301419</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="n">
+        <v>0.0920867446967219</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
+      </c>
+      <c r="U6" t="n">
         <v>2</v>
       </c>
-      <c r="U5" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>-2885.72426824491</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>-2860.43661965437</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7" t="n">
+        <v>1448.86213412245</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="n">
+        <v>0.000365608223450156</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" t="n">
+        <v>0.0122066094680257</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="n">
+        <v>2932.02018821142</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="n">
+        <v>2957.30783680195</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" t="n">
+        <v>-1460.01009410571</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" t="n">
+        <v>1302587822485475321502400684088804668480808404466442644480084208048620604440460266220840246424600484424080880848022084002866682848468406040408424848066266460262462064648066422884268084204682846020</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>5645082522445403810022668800604080648660802028860808484284864280604486266848822882422228246648442</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8" t="n">
+        <v>7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U8" t="n">
         <v>-2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>-3119.61273565076</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="n">
+        <v>-3094.32508706023</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" t="n">
+        <v>1565.80636782538</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" t="n">
+        <v>0.000552276237811958</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9" t="n">
+        <v>0.0149253103964816</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9" t="n">
+        <v>8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>-2644.0765647232</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="n">
+        <v>-2627.21813232951</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" t="n">
+        <v>1326.0382823616</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" t="n">
+        <v>0.000447074997537763</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10" t="n">
+        <v>0.014096189328253</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10" t="n">
+        <v>9</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>18</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>-2985.75527286734</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="n">
+        <v>-2964.68223237523</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11" t="n">
+        <v>1497.87763643367</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11" t="n">
+        <v>0.000374660255767897</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11" t="n">
+        <v>0.0124183085664645</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-8</v>
       </c>
     </row>
   </sheetData>
@@ -2288,332 +5639,752 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" t="n">
-        <v>0.0000409184967887153</v>
+        <v>0.0000409777544596631</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00452602623137869</v>
+        <v>0.0045298303922697</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0000266992062327845</v>
+        <v>0.0000226191828181642</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00425763885811179</v>
+        <v>0.00396662792498222</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0000142192905559309</v>
+        <v>0.000018358571641499</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000268387373266896</v>
+        <v>0.000563202467287485</v>
       </c>
       <c r="J2" t="n">
-        <v>34.7502759677436</v>
+        <v>44.801312037658</v>
       </c>
       <c r="K2" t="n">
-        <v>5.92986782547085</v>
+        <v>12.4331910582923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00100157037362807</v>
+        <v>0.0000470091097472961</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0220548986630599</v>
+        <v>0.00505096088539235</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00078045620266696</v>
+        <v>0.0000296770568839149</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0212590897952167</v>
+        <v>0.00426571186234868</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000221114170961106</v>
+        <v>0.0000173320528633813</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000795808867843226</v>
+        <v>0.000785249023043673</v>
       </c>
       <c r="J3" t="n">
-        <v>22.076748352704</v>
+        <v>36.8695619988382</v>
       </c>
       <c r="K3" t="n">
-        <v>3.60830888412169</v>
+        <v>15.5465274996418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000344071775415811</v>
+        <v>0.00132751967875086</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00423365430412743</v>
+        <v>0.0265806408862026</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0000279399798316296</v>
+        <v>0.000890344042183257</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00441480238409967</v>
+        <v>0.0221675326928302</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00000646719770995149</v>
+        <v>0.000437175636567598</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.000181148079972246</v>
+        <v>0.00441310819337238</v>
       </c>
       <c r="J4" t="n">
-        <v>18.7960715526168</v>
+        <v>32.9317631644424</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.27876408793327</v>
+        <v>16.6027155337068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="n">
-        <v>0.000117643090661667</v>
+        <v>0.0000541945722109087</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00815540288852893</v>
+        <v>0.00534456674165192</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000101383383589994</v>
+        <v>0.0000372820514655269</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0076654969590637</v>
+        <v>0.00491700061436235</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0000162597070716726</v>
+        <v>0.0000169125207453818</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000489905929465229</v>
+        <v>0.000427566127289574</v>
       </c>
       <c r="J5" t="n">
-        <v>13.8212171919509</v>
+        <v>31.2070380029266</v>
       </c>
       <c r="K5" t="n">
-        <v>6.00713338337106</v>
+        <v>8.00001474314866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000316598300654262</v>
+        <v>0.000151032862943597</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0121024524141415</v>
+        <v>0.00936077169439254</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00028576922310663</v>
+        <v>0.000107015791089713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0131012275819377</v>
+        <v>0.00816345440547861</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0000308290775476322</v>
+        <v>0.0000440170718538836</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.000998775167796206</v>
+        <v>0.00119731728891393</v>
       </c>
       <c r="J6" t="n">
-        <v>9.73760044950425</v>
+        <v>29.1440359376103</v>
       </c>
       <c r="K6" t="n">
-        <v>-8.25266758850591</v>
+        <v>12.7907968274792</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000598885254141106</v>
+        <v>0.00011769745293201</v>
       </c>
       <c r="D7" t="n">
-        <v>0.016399655143897</v>
+        <v>0.00815489849998383</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000894748233204193</v>
+        <v>0.0000956791810719033</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0213431300906702</v>
+        <v>0.00750903169918816</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.000295862979063087</v>
+        <v>0.000022018271860107</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00494347494677319</v>
+        <v>0.000645866800795665</v>
       </c>
       <c r="J7" t="n">
-        <v>-49.4022814917026</v>
+        <v>18.7075177173343</v>
       </c>
       <c r="K7" t="n">
-        <v>-30.1437737769313</v>
+        <v>7.91998577047827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000107970208374375</v>
+        <v>0.000188423406765555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00909816454881126</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
+        <v>0.0105524299703285</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.000160975222022765</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00986772236215145</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0000274481847427899</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.000684707608177064</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.5672903456959</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.4886249906641</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00100380132812952</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.022140732321569</v>
+      </c>
       <c r="E9" t="n">
-        <v>0.000895906083618502</v>
+        <v>0.000860526344144317</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0175964248018697</v>
+        <v>0.0221423987010408</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.000143274983985202</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.0000016663794717639</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.2732411255304</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.00752630693312954</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0000515527973425671</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00525776264751765</v>
+      </c>
       <c r="E10" t="n">
-        <v>111755820550134058346006848200602</v>
+        <v>0.0000459082938316313</v>
       </c>
       <c r="F10" t="n">
-        <v>2363850976166883</v>
+        <v>0.00559100392386753</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00000564450351093586</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.000333241276349879</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.9489761989602</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-6.33808139869556</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.000812930457601886</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0204114252894799</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.000829346781029884</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0211585697450629</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.0000164163234279984</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.000747144455582976</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-2.01940070943164</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-3.66042275336871</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.00111959510690415</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0241058175385153</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00115981549032572</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0239654344482205</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.0000402203834215678</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.000140383090294773</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-3.59240435882068</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.582361872068741</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0000344245658589725</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.00423507712086083</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0000376498560571651</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.00511411687462609</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.0000032252901981926</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.000879039753765254</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-9.36915286428212</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-20.7561687468534</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" t="n">
-        <v>0.0243937292606057</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.120240940759609</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="C14" t="n">
+        <v>0.000319284269996263</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0121920750030135</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.000357142614025405</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0148809470227308</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.0000378583440291421</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.00268887201971734</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-11.8572531085184</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-22.0542608132967</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0000400626614373225</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.00470925312283025</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0000496073955710121</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.00573814680068166</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.00000954473413368967</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.00102889367785141</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-23.8245133779299</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-21.8483409367694</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.000372757634185981</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0138921120121489</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.000462012040189216</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0167403972781805</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.0000892544060032347</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.0028482852660316</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-23.9443536007374</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-20.5028959134559</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.00059953077463494</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0164235828002378</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.000820032162583979</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0196265345855862</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.000220501387949038</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.00320295178534841</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-36.7789940530248</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-19.5021501964969</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.000412778614199005</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0143985807936278</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.000571540037264683</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0188712243640698</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.000158761423065679</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.00447264357044194</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-38.4616396306661</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-31.0630862482039</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.000695097935646265</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0184203552407474</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0014353389849314</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0276491575657876</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.000740241049285137</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.00922880232504028</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-106.494496864949</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-50.1011093674534</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.718525068301419</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0920867446967219</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" t="n">
+        <v>207185870231954258362288464084248</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3218585872179953</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" t="n">
+        <v>0.0445734208773483</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.210543336104814</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" t="n">
+        <v>2605175644970950643004800268066608226860606808822884288860068406086240208880820422440680482848200868848060660686044068004622264686826802080806848686022422820424824028286022844668426068408264682040</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11290165044890807620044226600208060286220604046620606868468628460208862422686644664844446482286884</v>
+      </c>
+      <c r="G23" t="n">
         <v>2</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2637,49 +6408,49 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000107970208374375</v>
+        <v>0.000352619357668561</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2687,23 +6458,23 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000351670448902566</v>
+        <v>0.000411248257046974</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2711,23 +6482,23 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4" t="n">
-        <v>0.000352832704772032</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.000457943545618014</v>
+      </c>
+      <c r="D4"/>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2740,22 +6511,166 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5"/>
-      <c r="D5" t="n">
-        <v>27938955137533514584004262800408</v>
-      </c>
+      <c r="C5" t="n">
+        <v>0.000477211552866502</v>
+      </c>
+      <c r="D5"/>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.718525068301419</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>0.000365608223450156</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="n">
+        <v>1302587822485475321502400684088804668480808404466442644480084208048620604440460266220840246424600484424080880848022084002866682848468406040408424848066266460262462064648066422884268084204682846020</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="n">
+        <v>0.000552276237811958</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>0.000447074997537763</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>0.000374660255767897</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
